--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/SVR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/SVR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/SVR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/SVR.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/SVR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/SVR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,37 +485,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 7, 9, 10, 12, 15, 16, 17, 19, 24, 27, 28, 30, 31, 32, 33, 35, 36, 37, 39]</t>
+          <t>[0, 4, 5, 6, 8, 9, 11, 12, 14, 15, 24, 25, 26, 28, 29, 30, 31, 33, 35, 36, 37, 38, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.807936507936508</t>
+          <t>1.135873015873016</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.06481957443267088</t>
+          <t>0.07141376343527879</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.05818517387255178</t>
+          <t>0.05834603993773086</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.949854483244128</t>
+          <t>0.9320218347185639</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2762339115142822</t>
+          <t>4.88847279548645</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -527,79 +527,79 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1, 8, 9, 12, 19, 21, 22, 25, 29, 30, 32, 33, 34, 35, 36, 37, 39, 41]</t>
+          <t>[3, 7, 8, 9, 14, 18, 19, 20, 21, 25, 26, 27, 28, 29, 31, 33, 37, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7871031746031746</t>
+          <t>0.579047619047619</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06566957252127649</t>
+          <t>0.07235625610649694</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.0572403774991056</t>
+          <t>0.08330985997024438</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.9514697624922612</t>
+          <t>0.8614075800632696</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2758843898773193</t>
+          <t>4.975816249847412</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[3, 4, 10, 11, 12, 13, 16, 19, 23, 26, 27, 29, 31, 32, 35, 42, 43, 44]</t>
+          <t>[10, 11, 13, 16, 17, 18, 19, 26, 30, 31, 34, 37, 40]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.40793650793650793</t>
+          <t>0.22523809523809524</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06539205550118704</t>
+          <t>0.0709006649560747</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.05551547518941552</t>
+          <t>0.08638526574251097</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9543505487425545</t>
+          <t>0.8509863625163823</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2750792503356934</t>
+          <t>5.0022664070129395</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,7 +611,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[3, 5, 7, 8, 12, 15, 17, 19, 21, 22, 25, 26, 28, 29, 31, 32, 33, 34, 35, 39, 40, 43, 44]</t>
+          <t>[2, 3, 4, 7, 9, 16, 17, 18, 19, 20, 21, 23, 25, 26, 27, 28, 32, 35, 36, 37, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -621,111 +621,111 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8535714285714285</t>
+          <t>0.5971428571428572</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06256608023644489</t>
+          <t>0.07129735571289533</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.04889869087184474</t>
+          <t>0.08633255849016855</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9645838047932942</t>
+          <t>0.8511681459089336</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.267974853515625</t>
+          <t>4.952850580215454</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0, 2, 7, 8, 13, 14, 15, 19, 20, 23, 25, 26, 28, 29, 31, 33, 36, 38, 39, 40, 42, 44]</t>
+          <t>[0, 2, 3, 9, 18, 21, 23, 26, 28, 29, 30, 33, 34, 35, 37, 40]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8583333333333334</t>
+          <t>0.3607936507936508</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06303262770310955</t>
+          <t>0.0704875960022299</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.05534998276242807</t>
+          <t>0.08958522137219355</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9546223064177154</t>
+          <t>0.8397421133263016</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2826659679412842</t>
+          <t>5.19676661491394</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[1, 4, 5, 13, 14, 15, 16, 17, 19, 20, 21, 25, 28, 29, 30, 32, 33, 34, 36, 40]</t>
+          <t>[0, 1, 2, 3, 5, 9, 11, 12, 14, 17, 19, 23, 25, 28, 29, 33, 34, 36, 37]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.5416666666666667</t>
+          <t>0.8171428571428572</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06414533864893121</t>
+          <t>0.07229204294686896</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.05735973688244762</t>
+          <t>0.057283830126938204</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9512671580069115</t>
+          <t>0.9344744363619788</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2852160930633545</t>
+          <t>5.138976097106934</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -737,79 +737,79 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1, 5, 6, 7, 11, 13, 14, 15, 17, 19, 20, 25, 27, 28, 29, 31, 32, 33, 35, 36, 40, 41, 42, 43, 44]</t>
+          <t>[3, 4, 6, 8, 9, 11, 12, 13, 14, 21, 24, 28, 31, 32, 34, 35, 36, 44]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1126984126984127</t>
+          <t>0.6788888888888889</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06618208943712883</t>
+          <t>0.07246792415150759</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.050255246881276264</t>
+          <t>0.06274437508570781</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9625915029622693</t>
+          <t>0.9213866568988065</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.268850326538086</t>
+          <t>5.021008491516113</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 10, 12, 16, 17, 18, 21, 22, 25, 29, 31, 37, 42, 43]</t>
+          <t>[7, 9, 11, 13, 15, 16, 18, 19, 20, 22, 23, 25, 28, 29, 30, 31, 34, 37, 40, 43]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.3732142857142857</t>
+          <t>0.6506349206349207</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.06096209220248635</t>
+          <t>0.07090223815443766</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.03512768750566675</t>
+          <t>0.07499081389935092</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9817229306572706</t>
+          <t>0.8877043836151295</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.2882721424102783</t>
+          <t>4.935680866241455</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -821,259 +821,259 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 7, 14, 15, 17, 21, 22, 25, 26, 28, 32, 34, 35, 41, 44]</t>
+          <t>[3, 4, 5, 6, 8, 11, 12, 19, 20, 21, 22, 26, 27, 28, 29, 31, 33, 35, 36, 37, 38, 43]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.4996031746031746</t>
+          <t>0.8549206349206349</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06328147888744194</t>
+          <t>0.0709356877660976</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.057793257816708646</t>
+          <t>0.07203144366170372</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9505277353581908</t>
+          <t>0.8963925685758206</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.2789301872253418</t>
+          <t>4.93875527381897</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 6, 7, 11, 12, 16, 17, 18, 20, 24, 27, 28, 29, 32, 33, 36, 37, 40, 41, 44]</t>
+          <t>[0, 6, 7, 9, 14, 17, 19, 20, 21, 23, 24, 26, 27, 28, 29, 31, 33, 35, 36, 37, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6855158730158731</t>
+          <t>0.6501587301587302</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0660964616037787</t>
+          <t>0.07218080816857089</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.05717799404031846</t>
+          <t>0.07758133811502557</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9515754862645721</t>
+          <t>0.8798119743585459</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2753958702087402</t>
+          <t>5.003488779067993</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 8, 16, 19, 21, 23, 25, 26, 29, 30, 31, 32, 35, 37, 39, 42, 43, 44]</t>
+          <t>[0, 2, 6, 7, 9, 13, 16, 17, 18, 20, 22, 23, 24, 25, 26, 27, 29, 30, 31, 33, 35, 37, 43, 44]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4194444444444444</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.06227587019501425</t>
+          <t>0.07258140012063646</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.05327794094363962</t>
+          <t>0.07488954016336023</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9579561669912782</t>
+          <t>0.8880074852024533</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2828056812286377</t>
+          <t>4.930578947067261</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1, 3, 9, 13, 15, 16, 18, 21, 22, 23, 25, 27, 28, 32, 33, 34, 37, 39, 41]</t>
+          <t>[0, 2, 3, 5, 8, 16, 17, 18, 21, 22, 25, 28, 30, 31, 35, 36, 37, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.7720238095238094</t>
+          <t>0.5685714285714285</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.06495343583878803</t>
+          <t>0.07144769811844028</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.05622391981694543</t>
+          <t>0.06324741476771818</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9531780303470214</t>
+          <t>0.9201210723614077</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.274336576461792</t>
+          <t>5.045945882797241</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 9, 11, 14, 16, 17, 19, 21, 22, 25, 28, 29, 31, 33, 35, 36, 37, 43, 44]</t>
+          <t>[0, 5, 7, 9, 10, 11, 17, 19, 20, 24, 25, 30, 31, 35, 36, 37, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.9805555555555556</t>
+          <t>0.5304761904761904</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.06421163941513028</t>
+          <t>0.07020941713526128</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.055799697749726686</t>
+          <t>0.08331525758235171</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9538819292483853</t>
+          <t>0.8613896207879181</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.2582592964172363</t>
+          <t>4.8795671463012695</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 5, 8, 12, 14, 15, 16, 17, 23, 26, 28, 29, 30, 31, 33, 34, 35, 37, 38]</t>
+          <t>[0, 2, 18, 21, 25, 28, 30, 31, 32, 33, 37, 38, 39, 41]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.7047619047619047</t>
+          <t>0.3161904761904762</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.06467096319278934</t>
+          <t>0.0713869465719108</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.06001935228113339</t>
+          <t>0.07993719144401008</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9466431666655672</t>
+          <t>0.8724018317416041</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.2732222080230713</t>
+          <t>4.8760058879852295</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[1, 3, 7, 13, 17, 18, 20, 22, 24, 25, 26, 28, 30, 31, 32, 33, 36, 37, 38, 39, 41, 42, 43, 44]</t>
+          <t>[2, 4, 5, 7, 8, 9, 13, 15, 17, 18, 20, 21, 23, 25, 27, 28, 29, 30, 31, 32, 33, 36, 37, 39]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1083,111 +1083,111 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9859126984126985</t>
+          <t>0.5588888888888889</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.06541713083340572</t>
+          <t>0.07203768276047712</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.06144482262138261</t>
+          <t>0.0727523263511326</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9440786009741717</t>
+          <t>0.8943084081419478</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.2760262489318848</t>
+          <t>5.014081716537476</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[3, 4, 10, 12, 13, 14, 16, 18, 19, 20, 22, 23, 25, 29, 31, 32, 33, 40, 43, 44]</t>
+          <t>[0, 1, 5, 6, 7, 8, 11, 17, 18, 20, 21, 22, 25, 27, 30, 31, 32, 33, 34, 36, 37, 39, 41]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6085317460317461</t>
+          <t>0.8819047619047619</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.06370945423598276</t>
+          <t>0.07464245645590835</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.05841700075285972</t>
+          <t>0.06765633236565725</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9494540981698736</t>
+          <t>0.9085963431615077</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.266319990158081</t>
+          <t>5.100844860076904</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 13, 17, 18, 20, 23, 25, 26, 28, 29, 31, 32, 33, 34, 40, 43, 44]</t>
+          <t>[3, 4, 5, 6, 7, 15, 16, 17, 19, 22, 23, 24, 25, 26, 28, 29, 30, 31, 32, 33, 35, 36, 40, 44]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.42896825396825394</t>
+          <t>0.5525396825396826</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.06194326935939666</t>
+          <t>0.07053960840796615</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.05737801375877592</t>
+          <t>0.07508592360214864</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9512360969847848</t>
+          <t>0.8874193573555152</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.2838871479034424</t>
+          <t>5.065677165985107</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 4, 5, 9, 14, 16, 22, 23, 25, 26, 29, 33, 34, 35, 38, 39, 44]</t>
+          <t>[0, 1, 7, 12, 15, 18, 19, 20, 21, 23, 24, 25, 27, 28, 35, 36, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1209,123 +1209,123 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.40654761904761905</t>
+          <t>0.4792063492063492</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.06531581043779855</t>
+          <t>0.07408935791935013</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.05285969708794401</t>
+          <t>0.08562220499270748</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9586136831443376</t>
+          <t>0.8536072784663653</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.2640621662139893</t>
+          <t>4.964608907699585</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 7, 9, 13, 14, 18, 19, 20, 21, 23, 27, 28, 29, 30, 31, 32, 33, 35, 36, 37, 44]</t>
+          <t>[0, 1, 6, 9, 10, 13, 14, 15, 17, 19, 20, 21, 23, 24, 25, 26, 28, 30, 31, 33, 35, 36, 37, 41, 43]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.7537698412698413</t>
+          <t>0.7374603174603175</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0636084240406997</t>
+          <t>0.07205800833348688</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.04895675182358436</t>
+          <t>0.08415601639808418</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.9644996504423425</t>
+          <t>0.8585779891418097</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.2729847431182861</t>
+          <t>5.012172222137451</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 7, 8, 10, 11, 12, 13, 15, 19, 20, 25, 26, 27, 30, 31, 32, 35, 36, 44]</t>
+          <t>[4, 5, 10, 13, 16, 17, 19, 20, 21, 22, 23, 30, 31, 32, 35, 36, 41]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.6172619047619048</t>
+          <t>0.24079365079365078</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.06501374477628594</t>
+          <t>0.07273601181498855</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.052044154034971424</t>
+          <t>0.07519449989701978</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.9598808848906313</t>
+          <t>0.8870935325860402</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.269261121749878</t>
+          <t>4.969338655471802</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 6, 10, 13, 16, 17, 19, 20, 21, 22, 24, 26, 29, 33, 34, 35, 36, 42, 43, 44]</t>
+          <t>[0, 3, 5, 9, 14, 15, 17, 18, 20, 22, 23, 26, 27, 28, 29, 30, 31, 33, 35, 36, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1335,27 +1335,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.6686507936507937</t>
+          <t>0.6773015873015873</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.06694520751057113</t>
+          <t>0.07169300614583199</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.05103353831396667</t>
+          <t>0.09156838406225708</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.961423857353098</t>
+          <t>0.8325682682373725</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.2736032009124756</t>
+          <t>5.031287670135498</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1367,259 +1367,259 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 7, 8, 9, 10, 11, 16, 17, 18, 19, 22, 23, 24, 25, 26, 27, 28, 30, 31, 32, 34, 35, 36, 37, 39, 40, 42, 43, 44]</t>
+          <t>[2, 5, 6, 7, 9, 12, 13, 22, 23, 24, 25, 26, 28, 29, 31, 32, 33, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.4420634920634923</t>
+          <t>0.5031746031746032</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.06577246233010342</t>
+          <t>0.07029270487797175</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.05415973266434535</t>
+          <t>0.069699286964851</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.956552933146692</t>
+          <t>0.9029929407098057</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.268390417098999</t>
+          <t>4.871169328689575</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 8, 9, 12, 13, 14, 17, 21, 22, 24, 25, 26, 27, 28, 29, 32, 33, 34, 35, 36, 37, 38, 39, 40, 44]</t>
+          <t>[1, 6, 9, 11, 20, 22, 24, 25, 26, 28, 29, 30, 31, 34, 35, 36, 39, 40]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.0861111111111112</t>
+          <t>0.7973015873015874</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.06542521038931494</t>
+          <t>0.06935925207681153</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.054879412651675716</t>
+          <t>0.08680318235188558</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9553906035324456</t>
+          <t>0.8495410717723623</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.2802486419677734</t>
+          <t>5.20255184173584</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 10, 11, 19, 25, 26, 27, 31, 35, 37, 41, 44]</t>
+          <t>[0, 3, 8, 9, 10, 12, 14, 15, 16, 17, 18, 19, 20, 21, 23, 26, 27, 28, 29, 31, 32, 33, 35, 36, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.2793650793650793</t>
+          <t>0.7634920634920634</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06253429814630146</t>
+          <t>0.07255372286456083</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.044586939521459784</t>
+          <t>0.07296574886870295</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9705542402424002</t>
+          <t>0.8936873956538021</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.2815883159637451</t>
+          <t>5.075299501419067</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 16, 19, 25, 26, 27, 28, 31, 32, 35, 37, 41, 44]</t>
+          <t>[0, 2, 3, 10, 11, 13, 17, 25, 29, 34, 36, 37, 38, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.5777777777777777</t>
+          <t>0.5260317460317461</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.06323405906974233</t>
+          <t>0.07098045549939372</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.053153591843763635</t>
+          <t>0.04322736277555999</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.9581521960257738</t>
+          <t>0.9626866578390654</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.2651863098144531</t>
+          <t>5.188460350036621</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[0, 2, 5, 9, 12, 13, 15, 16, 17, 18, 19, 22, 26, 28, 29, 31, 32, 33, 34, 36, 37, 44]</t>
+          <t>[16, 18, 19, 21, 22, 23, 24, 25, 28, 30, 37, 38, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.8412698412698412</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.06485837261212293</t>
+          <t>0.0705569721081481</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.05614646740391004</t>
+          <t>0.07193822853857501</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9533069426207417</t>
+          <t>0.8966605496122099</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.269101619720459</t>
+          <t>5.1719372272491455</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 9, 12, 13, 14, 18, 20, 22, 25, 26, 28, 31, 36, 37, 39, 41, 42, 44]</t>
+          <t>[0, 1, 3, 5, 6, 8, 9, 10, 11, 13, 18, 23, 24, 25, 27, 30, 34, 35, 36, 37, 39, 41, 44]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.892063492063492</t>
+          <t>0.9330158730158731</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.06567615425842488</t>
+          <t>0.07252719352891568</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.051018304636272487</t>
+          <t>0.04964863967936646</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.9614468841246873</t>
+          <t>0.9507777596710711</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.2693910598754883</t>
+          <t>5.508455038070679</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 7, 8, 12, 14, 16, 17, 21, 23, 25, 26, 28, 31, 32, 35, 37, 39, 41, 44]</t>
+          <t>[0, 2, 3, 9, 10, 14, 17, 18, 19, 22, 23, 26, 27, 29, 31, 32, 33, 34, 35, 37, 39, 40]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1629,153 +1629,153 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.930952380952381</t>
+          <t>0.343015873015873</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.06094260915650627</t>
+          <t>0.07195555807475888</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.052565545869051294</t>
+          <t>0.07460943329728847</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.959073010912615</t>
+          <t>0.8888436822582236</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.2601842880249023</t>
+          <t>5.219043493270874</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[1, 4, 7, 9, 10, 11, 13, 16, 18, 20, 21, 25, 28, 32, 33, 36, 41, 44]</t>
+          <t>[0, 4, 5, 11, 15, 19, 20, 21, 25, 28, 31, 32, 33, 34, 37, 39, 41]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.5275793650793651</t>
+          <t>0.5503174603174603</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.06535612847556736</t>
+          <t>0.07295038579027452</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.06130780186008223</t>
+          <t>0.06609619973142983</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9443277301553635</t>
+          <t>0.9127632155742763</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.2669563293457031</t>
+          <t>5.450333833694458</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 5, 8, 13, 14, 15, 16, 17, 19, 22, 26, 28, 31, 32, 35, 36, 37, 38, 39, 41, 42, 44]</t>
+          <t>[8, 9, 15, 16, 21, 25, 26, 27, 29, 30, 33, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.2061507936507936</t>
+          <t>0.2338095238095238</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.06440480387174558</t>
+          <t>0.0702128445823065</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.05138202931042423</t>
+          <t>0.06164442994739372</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9608952113209938</t>
+          <t>0.9241187719836869</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.2669281959533691</t>
+          <t>5.392827272415161</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 9, 10, 16, 20, 21, 23, 25, 27, 32, 33, 37, 42, 43, 44]</t>
+          <t>[1, 6, 11, 12, 14, 16, 17, 18, 23, 25, 26, 27, 28, 29, 31, 32, 33, 35, 41]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.46706349206349207</t>
+          <t>0.7765079365079366</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.06322573524632817</t>
+          <t>0.0700436313634169</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.06143222107549559</t>
+          <t>0.06565254215495173</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9441015361470231</t>
+          <t>0.9139304042039234</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.2622671127319336</t>
+          <t>5.114730596542358</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1787,79 +1787,79 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 8, 13, 22, 25, 28, 31, 32, 35, 36, 43, 44]</t>
+          <t>[2, 5, 12, 14, 15, 16, 17, 19, 22, 23, 25, 27, 29, 32, 35, 36, 40, 44]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.3238095238095238</t>
+          <t>0.5306349206349206</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.06359627404428718</t>
+          <t>0.0723030452470915</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.04934365024187669</t>
+          <t>0.07322616808000294</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9639363245845667</t>
+          <t>0.8929271690751764</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.2678642272949219</t>
+          <t>5.104032039642334</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 7, 10, 11, 13, 14, 15, 16, 17, 18, 19, 21, 22, 24, 25, 26, 27, 30, 33, 34, 35, 36, 44]</t>
+          <t>[4, 5, 8, 9, 10, 11, 12, 17, 21, 25, 26, 28, 30, 31, 32, 33, 35, 36, 37, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.7289682539682539</t>
+          <t>0.8238095238095238</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.06577002763027409</t>
+          <t>0.06982045463635059</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.06533974408486454</t>
+          <t>0.057731727072162065</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.9367643049343136</t>
+          <t>0.9334457538489345</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.2558071613311768</t>
+          <t>4.764929294586182</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1871,79 +1871,79 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 13, 15, 20, 23, 24, 26, 27, 29, 30, 32, 33, 34, 37, 43, 44]</t>
+          <t>[0, 2, 3, 9, 11, 15, 16, 17, 18, 19, 20, 21, 24, 25, 26, 28, 31, 32, 34, 35, 36, 37, 38, 39, 43]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.30158730158730157</t>
+          <t>0.9088888888888889</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.06155499803062381</t>
+          <t>0.0726344283915168</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.05371214148856</t>
+          <t>0.07070960977870751</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.9572680832048451</t>
+          <t>0.9001602350147326</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.264878273010254</t>
+          <t>4.849426031112671</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[1, 4, 5, 7, 16, 17, 23, 26, 29, 30, 31, 35, 36, 38, 39, 40, 41, 44]</t>
+          <t>[3, 7, 9, 11, 13, 14, 15, 16, 17, 18, 20, 21, 24, 25, 26, 27, 28, 30, 32, 33, 34, 35, 36, 37, 42]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.37857142857142856</t>
+          <t>0.7882539682539682</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.06401593294236987</t>
+          <t>0.06956827132250229</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.05331149828902755</t>
+          <t>0.08310707272622399</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9579031873255849</t>
+          <t>0.8620814635511804</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.2710957527160645</t>
+          <t>4.877579689025879</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1955,37 +1955,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 7, 11, 13, 14, 17, 19, 22, 24, 25, 26, 28, 31, 33, 34, 35, 37, 43, 44]</t>
+          <t>[0, 1, 2, 10, 11, 13, 14, 15, 16, 17, 18, 19, 21, 23, 24, 26, 27, 28, 29, 30, 33, 34, 35, 37, 39, 43]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.8761904761904762</t>
+          <t>0.9242857142857143</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.0634430032226572</t>
+          <t>0.07118724431957087</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.055560561791677586</t>
+          <t>0.08016555691897123</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.9542763707078785</t>
+          <t>0.8716717425776627</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.2611804008483887</t>
+          <t>4.87653923034668</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[1, 10, 11, 12, 17, 19, 21, 25, 26, 28, 29, 31, 32, 34, 35, 37, 40, 41, 42]</t>
+          <t>[2, 4, 6, 8, 9, 16, 17, 22, 23, 25, 26, 27, 28, 31, 32, 35, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2007,27 +2007,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.7464285714285714</t>
+          <t>0.7661904761904762</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.06505556064667542</t>
+          <t>0.07097986788983915</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.056712472079576644</t>
+          <t>0.06920678635670348</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.9523607851517728</t>
+          <t>0.9043590161222632</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.2669382095336914</t>
+          <t>4.880470037460327</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2039,301 +2039,301 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 4, 10, 11, 14, 15, 16, 17, 18, 19, 20, 26, 32, 33, 34, 36, 37, 40, 42, 44]</t>
+          <t>[1, 2, 3, 4, 5, 7, 9, 12, 14, 15, 16, 18, 19, 20, 26, 27, 29, 30, 31, 33, 35, 36, 37, 38, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.8174603174603174</t>
+          <t>0.8485714285714285</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.06434878469732604</t>
+          <t>0.07287587991176019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.060531358095589786</t>
+          <t>0.08606914265227501</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.9457289437454532</t>
+          <t>0.8520749847206911</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.2628369331359863</t>
+          <t>4.995246410369873</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[3, 8, 11, 19, 21, 25, 26, 27, 28, 31, 33, 35, 36, 37, 42]</t>
+          <t>[0, 4, 7, 10, 11, 13, 15, 24, 25, 28, 31, 32, 35, 36, 37, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.591468253968254</t>
+          <t>0.6771428571428572</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.062263719593936194</t>
+          <t>0.06963671367540461</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.05169998620360711</t>
+          <t>0.0573087846669446</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.9604097455832669</t>
+          <t>0.9344173341585176</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.255985975265503</t>
+          <t>4.97936224937439</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[0, 3, 10, 19, 22, 23, 26, 27, 30, 32, 34, 36, 39, 40, 41, 44]</t>
+          <t>[0, 7, 10, 11, 12, 13, 14, 16, 17, 22, 23, 25, 26, 27, 29, 31, 32, 33, 35, 36, 37, 38, 41]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.3626984126984127</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.06625969217784841</t>
+          <t>0.07181477955264844</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.05670962256307009</t>
+          <t>0.06889968107833891</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.9523655722934278</t>
+          <t>0.905205946999725</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.2624633312225342</t>
+          <t>4.924320220947266</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[1, 3, 7, 9, 10, 12, 13, 14, 23, 26, 29, 30, 31, 32, 33, 35, 36, 37, 38, 39, 41, 43, 44]</t>
+          <t>[1, 3, 4, 5, 9, 15, 16, 19, 23, 24, 25, 26, 27, 33, 34, 36, 37, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.7440476190476191</t>
+          <t>0.5282539682539682</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.06367557298161655</t>
+          <t>0.07226935282432177</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.05794314685474205</t>
+          <t>0.06656585818474434</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.950270786141795</t>
+          <t>0.9115190575568599</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.2679212093353271</t>
+          <t>4.912810802459717</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 6, 7, 12, 13, 16, 17, 18, 20, 22, 23, 24, 25, 26, 28, 29, 31, 32, 34, 35, 38, 39, 44]</t>
+          <t>[5, 7, 11, 18, 19, 20, 21, 25, 27, 29, 30, 33, 34, 35, 38]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.6371031746031746</t>
+          <t>0.24507936507936506</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.06542043741831807</t>
+          <t>0.07174778174567037</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.05681184105944044</t>
+          <t>0.07906279929485521</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9521936964239123</t>
+          <t>0.875178027060484</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.2537691593170166</t>
+          <t>4.8658366203308105</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 5, 10, 12, 13, 17, 19, 21, 22, 24, 25, 28, 29, 31, 33, 36, 38, 40, 42, 44]</t>
+          <t>[0, 5, 7, 9, 10, 11, 16, 17, 19, 21, 25, 26, 28, 31, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.7182539682539683</t>
+          <t>0.6526984126984128</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.06410146383651864</t>
+          <t>0.06733626295066064</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0573775908153525</t>
+          <t>0.06386817548219198</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.9512368158767338</t>
+          <t>0.9185453862330257</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.2920811176300049</t>
+          <t>4.9016406536102295</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 13, 14, 18, 19, 24, 26, 30, 32, 34, 36, 39, 40, 42, 43]</t>
+          <t>[0, 1, 3, 4, 9, 12, 14, 15, 18, 19, 20, 23, 25, 27, 28, 29, 30, 33, 34, 35, 36, 42]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.4728174603174603</t>
+          <t>0.8306349206349206</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.06644436521910473</t>
+          <t>0.07048992111534182</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.06033115291468354</t>
+          <t>0.08314928835733057</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9460873489957189</t>
+          <t>0.8619413118976933</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.265805721282959</t>
+          <t>5.018866539001465</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 7, 8, 11, 15, 16, 17, 21, 22, 23, 25, 26, 28, 29, 30, 32, 34, 35, 36, 38, 39, 41, 42, 44]</t>
+          <t>[2, 3, 5, 8, 9, 14, 18, 19, 20, 23, 25, 26, 28, 29, 30, 32, 33, 34, 35, 36, 37, 38, 39, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2343,573 +2343,573 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.0162698412698412</t>
+          <t>0.846984126984127</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.06719713325750588</t>
+          <t>0.07260537227609531</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.0568892732983871</t>
+          <t>0.07464925345647466</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9520632915041046</t>
+          <t>0.8887249990501569</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.2573790550231934</t>
+          <t>4.9373674392700195</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 9, 10, 14, 21, 23, 26, 28, 29, 32, 33, 34, 35, 37, 39, 44]</t>
+          <t>[1, 2, 3, 5, 11, 13, 14, 15, 16, 19, 20, 22, 24, 26, 27, 29, 30, 31, 33, 35, 36, 37, 40, 43]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.6500000000000001</t>
+          <t>0.7533333333333333</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.06389261347301288</t>
+          <t>0.07252643443481369</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.05725451410150043</t>
+          <t>0.0811308798150064</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.9514457885976558</t>
+          <t>0.8685625755785312</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.2517006397247314</t>
+          <t>4.981508731842041</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 15, 17, 18, 22, 25, 26, 28, 29, 30, 34, 35, 36, 37, 41, 42, 44]</t>
+          <t>[1, 4, 9, 12, 16, 18, 19, 21, 22, 25, 27, 28, 29, 32, 35, 36, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.7057539682539683</t>
+          <t>0.8734920634920635</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.06539769381933318</t>
+          <t>0.07168521680916314</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.06337449924211284</t>
+          <t>0.06848201449739325</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.9405110203865574</t>
+          <t>0.9063517376347848</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.2590696811676025</t>
+          <t>4.996517658233643</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 7, 14, 17, 18, 21, 26, 27, 33, 34, 37, 39]</t>
+          <t>[2, 3, 9, 12, 17, 18, 20, 22, 23, 24, 26, 30, 31, 35, 37]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.3466269841269841</t>
+          <t>0.15603174603174602</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.06391457631546672</t>
+          <t>0.07198129761617796</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.06626376564941397</t>
+          <t>0.10052678913276218</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9349631253462719</t>
+          <t>0.7982050510227783</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.2643940448760986</t>
+          <t>4.8491106033325195</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[1, 4, 7, 8, 9, 10, 12, 13, 17, 18, 19, 20, 22, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 36, 37, 44]</t>
+          <t>[9, 11, 16, 19, 21, 22, 23, 24, 25, 27, 31, 32, 33, 35, 37, 38, 40, 43, 44]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.0956349206349207</t>
+          <t>0.6461904761904762</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.0634639745980394</t>
+          <t>0.07124273743218337</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.048037975638971685</t>
+          <t>0.06604455326986758</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.9658196241928659</t>
+          <t>0.9128994930305337</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.2599895000457764</t>
+          <t>4.991191148757935</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 6, 12, 16, 19, 21, 22, 24, 25, 26, 27, 28, 29, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 43, 44]</t>
+          <t>[0, 5, 7, 9, 10, 16, 18, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 32, 35, 36, 42, 44]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.1686507936507935</t>
+          <t>0.5925396825396825</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.06784502400069267</t>
+          <t>0.07275391779742912</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.05805172324680394</t>
+          <t>0.07332151808057571</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.950084241994746</t>
+          <t>0.8926481420077217</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.2714250087738037</t>
+          <t>4.840149641036987</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[4, 5, 9, 20, 23, 25, 28, 29, 30, 31, 34, 35, 37, 38, 40, 41, 44]</t>
+          <t>[0, 2, 4, 5, 13, 15, 17, 18, 21, 24, 25, 28, 29, 30, 32, 34, 35, 36, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.35079365079365077</t>
+          <t>0.536984126984127</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.06612676924574104</t>
+          <t>0.07162620368826253</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.05739837843103944</t>
+          <t>0.09441272034163503</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.9512014761581894</t>
+          <t>0.8220050456318018</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.2778847217559814</t>
+          <t>5.091863393783569</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 4, 14, 15, 16, 17, 18, 20, 24, 25, 26, 28, 29, 32, 34, 36, 37, 38, 39, 40, 41, 43, 44]</t>
+          <t>[3, 4, 6, 7, 9, 11, 14, 15, 16, 18, 20, 22, 25, 27, 28, 29, 31, 32, 33, 34, 35, 36, 39, 43]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.038095238095238</t>
+          <t>0.950952380952381</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.06460824287558989</t>
+          <t>0.07243840447432051</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.05765433426819581</t>
+          <t>0.07293315669263072</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.9507652925513987</t>
+          <t>0.8937823493906772</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.260540246963501</t>
+          <t>4.9587976932525635</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 10, 11, 12, 13, 14, 15, 19, 20, 24, 25, 26, 31, 32, 33, 36, 37, 38, 41, 42, 43, 44]</t>
+          <t>[0, 3, 5, 6, 7, 11, 19, 20, 23, 26, 29, 30, 33, 35, 36, 37, 39, 40, 43]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.9412698412698413</t>
+          <t>0.3384126984126984</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.06596393736988385</t>
+          <t>0.0704638086731518</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.060783067187612706</t>
+          <t>0.07988444353845535</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.945276651870146</t>
+          <t>0.8725701717940315</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.2635550498962402</t>
+          <t>5.287208557128906</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 9, 10, 12, 14, 16, 23, 24, 26, 27, 29, 30, 32, 35, 37, 39, 41, 42, 44]</t>
+          <t>[0, 1, 3, 8, 9, 11, 13, 24, 26, 27, 28, 31, 33, 35, 38, 39, 41]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.6103174603174604</t>
+          <t>0.994920634920635</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.06606236222290238</t>
+          <t>0.07081068557679826</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.060392049430884956</t>
+          <t>0.07822073750905749</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9459784583348945</t>
+          <t>0.8778227117086697</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.2765419483184814</t>
+          <t>5.198633193969727</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 11, 12, 13, 15, 19, 24, 25, 29, 30, 32, 33, 34, 35, 36, 37, 43]</t>
+          <t>[6, 8, 9, 10, 11, 13, 14, 16, 17, 22, 26, 30, 32, 34, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.5996031746031746</t>
+          <t>0.6526984126984128</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.06381002582933427</t>
+          <t>0.07331037820595515</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.06258851915127499</t>
+          <t>0.07106414123484493</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9419774527694003</t>
+          <t>0.8991565503852892</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.261155605316162</t>
+          <t>5.09005331993103</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 9, 10, 11, 17, 18, 19, 21, 22, 23, 24, 25, 26, 27, 29, 31, 32, 33, 35, 36, 37, 41, 43, 44]</t>
+          <t>[2, 3, 6, 9, 12, 13, 15, 17, 19, 20, 21, 28, 32, 35, 36, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.8876984126984127</t>
+          <t>0.30507936507936506</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.06374080968636449</t>
+          <t>0.0731858541823366</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.05486828651663215</t>
+          <t>0.0781816777689276</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.9554086897266256</t>
+          <t>0.8779447003723797</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.2657256126403809</t>
+          <t>4.938628911972046</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 10, 12, 13, 14, 15, 19, 20, 21, 24, 27, 28, 29, 32, 33, 34, 37, 41, 43, 44]</t>
+          <t>[3, 10, 11, 13, 17, 19, 21, 22, 24, 26, 31, 32, 35, 36, 37, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.6297619047619047</t>
+          <t>0.45015873015873015</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.06556785457376409</t>
+          <t>0.07146705574315171</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.05856343053629841</t>
+          <t>0.07547957859183278</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9492003808725364</t>
+          <t>0.8862358038212963</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.2800374031066895</t>
+          <t>5.087742328643799</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 9, 13, 15, 16, 17, 18, 19, 20, 22, 23, 25, 26, 27, 28, 29, 32, 33, 34, 36, 37, 38, 39, 40, 41, 44]</t>
+          <t>[0, 3, 5, 8, 9, 11, 17, 18, 19, 21, 26, 27, 28, 31, 33, 35, 36, 37, 38, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.2555555555555555</t>
+          <t>1.1136507936507936</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.06587534450415228</t>
+          <t>0.07075967411707762</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.05963154306713407</t>
+          <t>0.06613788491260608</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9473304590225041</t>
+          <t>0.9126531448622962</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.2638368606567383</t>
+          <t>5.160362958908081</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2921,121 +2921,121 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[3, 6, 11, 12, 16, 19, 20, 22, 28, 29, 31, 33, 37, 38]</t>
+          <t>[1, 4, 5, 9, 10, 11, 13, 16, 17, 18, 19, 22, 26, 27, 28, 31, 33, 34, 35, 40, 42]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.5095238095238095</t>
+          <t>0.7504761904761905</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.06796230578211637</t>
+          <t>0.07316662026885827</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.05438743367500948</t>
+          <t>0.07584046575192877</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9561868406000815</t>
+          <t>0.8851453317186966</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.2691521644592285</t>
+          <t>5.214305877685547</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 7, 9, 10, 11, 16, 18, 19, 23, 25, 27, 28, 29, 31, 32, 34, 36, 37, 42]</t>
+          <t>[5, 10, 11, 13, 20, 21, 23, 24, 26, 27, 28, 29, 30, 31, 33, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.8299603174603174</t>
+          <t>0.6231746031746032</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.06562584323324154</t>
+          <t>0.06871920507242754</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.05471452362979757</t>
+          <t>0.08742222551751856</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9556582649081444</t>
+          <t>0.8473874021014747</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.2746775150299072</t>
+          <t>5.083361625671387</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 7, 12, 13, 14, 15, 19, 24, 25, 27, 29, 30, 32, 33, 36, 38, 39, 42, 44]</t>
+          <t>[6, 11, 14, 18, 19, 20, 21, 22, 23, 24, 25, 30, 31, 33, 35, 37, 42, 43]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.6557539682539683</t>
+          <t>0.3566666666666667</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.0647339115238357</t>
+          <t>0.07264192643588652</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.06843217175044779</t>
+          <t>0.0725133693487898</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.930636965561861</t>
+          <t>0.8950015617669725</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.265700340270996</t>
+          <t>5.037657976150513</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3047,7 +3047,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[1, 4, 10, 19, 20, 24, 26, 27, 33, 34, 36, 37, 39, 43, 44]</t>
+          <t>[5, 13, 16, 17, 20, 21, 22, 26, 28, 29, 30, 33, 35, 36, 41]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3057,207 +3057,207 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.403968253968254</t>
+          <t>0.32746031746031745</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.06198771941659498</t>
+          <t>0.06814800686022912</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.07145630454873823</t>
+          <t>0.10600866860811738</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9243709677865326</t>
+          <t>0.7755966018254987</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.263779878616333</t>
+          <t>4.795124769210815</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[0, 9, 11, 17, 19, 20, 21, 22, 25, 26, 28, 33, 34, 35, 36, 37, 39, 41, 43, 44]</t>
+          <t>[0, 9, 10, 19, 25, 27, 29, 30, 33, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.0549603174603175</t>
+          <t>0.14031746031746029</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.06615522179938037</t>
+          <t>0.07104706640311122</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.06057152292827567</t>
+          <t>0.07100569616563257</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9456568980769476</t>
+          <t>0.8993223549297144</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.2789955139160156</t>
+          <t>5.272763729095459</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 4, 9, 10, 11, 14, 15, 16, 17, 18, 19, 25, 28, 30, 31, 32, 33, 34, 35, 36, 37, 40, 43, 44]</t>
+          <t>[0, 3, 4, 5, 9, 10, 12, 13, 15, 16, 19, 20, 21, 23, 26, 27, 28, 31, 33, 36]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.8938492063492064</t>
+          <t>0.3250793650793651</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.06508951862947562</t>
+          <t>0.07290820009795368</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.058428534060002334</t>
+          <t>0.08778496424752422</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.9494341375779116</t>
+          <t>0.846118311812441</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.2751238346099854</t>
+          <t>4.683286666870117</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 5, 7, 10, 11, 16, 17, 18, 19, 20, 21, 23, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 41, 44]</t>
+          <t>[1, 2, 4, 6, 9, 13, 19, 20, 22, 25, 26, 27, 28, 29, 30, 31, 32, 33, 36, 37, 38, 39, 44]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.0432539682539683</t>
+          <t>0.6922222222222223</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.0650459984334117</t>
+          <t>0.07312930306271563</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.05809916940739289</t>
+          <t>0.07764905866215331</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9500026155155311</t>
+          <t>0.8796020591548337</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.258465051651001</t>
+          <t>4.836389064788818</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[2, 9, 15, 16, 17, 19, 20, 22, 24, 26, 30, 31, 32, 33, 34, 35, 36, 37, 40]</t>
+          <t>[3, 5, 6, 9, 11, 13, 18, 19, 20, 24, 25, 26, 27, 29, 30, 31, 32, 35, 36, 44]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.731547619047619</t>
+          <t>0.5677777777777777</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.06481976150655702</t>
+          <t>0.07123815382580179</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.06068636292755381</t>
+          <t>0.08147993438018877</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9454506401676226</t>
+          <t>0.8674291593786446</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.2698814868927002</t>
+          <t>4.898510932922363</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[3, 6, 14, 16, 19, 20, 23, 24, 25, 27, 28, 29, 31, 33, 35, 36, 37, 42, 43, 44]</t>
+          <t>[3, 10, 13, 14, 18, 21, 22, 23, 24, 25, 26, 28, 29, 31, 32, 33, 35, 36, 43, 44]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3267,111 +3267,111 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.6738095238095239</t>
+          <t>0.5303174603174603</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.06486934250103302</t>
+          <t>0.07275316642325522</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.05342827270770347</t>
+          <t>0.07873684745682662</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9577185661895781</t>
+          <t>0.8762051114535435</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.2693321704864502</t>
+          <t>4.780266761779785</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[3, 4, 9, 11, 12, 13, 15, 17, 23, 26, 28, 29, 30, 31, 33, 34, 35, 36, 37, 38, 39, 44]</t>
+          <t>[0, 3, 9, 12, 16, 17, 18, 19, 24, 25, 27, 28, 29, 33, 34, 35, 37, 38, 39, 40]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.6698412698412698</t>
+          <t>0.5925396825396825</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.06364544944151547</t>
+          <t>0.07237048485235949</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.05570566669781735</t>
+          <t>0.07277867929741702</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.9540372303349414</t>
+          <t>0.8942318253180831</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.276669979095459</t>
+          <t>4.935558795928955</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 6, 10, 13, 16, 17, 23, 24, 26, 29, 31, 32, 35, 36, 37, 40, 41, 44]</t>
+          <t>[0, 5, 16, 17, 21, 22, 23, 24, 25, 28, 29, 30, 31, 35, 36, 38, 40, 43]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.466468253968254</t>
+          <t>0.47031746031746036</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.06516232161060781</t>
+          <t>0.06997836816869277</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.05608024360119021</t>
+          <t>0.0873852810846891</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.9534170249952649</t>
+          <t>0.8475163623171724</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.2546899318695068</t>
+          <t>5.040819883346558</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3383,37 +3383,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[3, 9, 10, 12, 14, 15, 16, 19, 20, 21, 24, 25, 26, 27, 28, 29, 30, 33, 34, 35, 37, 41]</t>
+          <t>[4, 7, 8, 9, 10, 13, 15, 16, 23, 24, 25, 26, 28, 31, 33, 34, 35, 36, 41, 43]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.6700396825396826</t>
+          <t>0.46142857142857147</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.0662113608563705</t>
+          <t>0.07106201537090276</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.05702281756157155</t>
+          <t>0.05617487167090598</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.9518379700745637</t>
+          <t>0.9369868998309082</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.2713944911956787</t>
+          <t>5.226294755935669</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3425,37 +3425,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 4, 9, 10, 15, 16, 17, 19, 23, 26, 27, 28, 31, 33, 34, 36, 41, 42, 44]</t>
+          <t>[5, 12, 16, 24, 26, 29, 30, 31, 32, 35, 37]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.6736111111111112</t>
+          <t>0.09793650793650793</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.06345997116753695</t>
+          <t>0.06721406058109516</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.05664424350350041</t>
+          <t>0.07085348090952714</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.9524753419851062</t>
+          <t>0.8997535385830421</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.2636620998382568</t>
+          <t>5.086503744125366</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3467,37 +3467,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 10, 19, 21, 22, 24, 25, 26, 29, 32, 33, 34, 35, 39, 43, 44]</t>
+          <t>[1, 3, 4, 6, 8, 10, 11, 12, 14, 17, 25, 26, 33, 34, 35, 36, 37, 39, 40, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.3359126984126984</t>
+          <t>0.9733333333333334</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.06706088266505081</t>
+          <t>0.07047208181429844</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.06249263510131517</t>
+          <t>0.046135592138975855</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.9421550947832913</t>
+          <t>0.9574970702661996</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.31365966796875</t>
+          <t>4.90742301940918</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3509,121 +3509,121 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[3, 4, 9, 10, 12, 14, 15, 21, 22, 23, 25, 26, 28, 30, 31, 32, 33, 34, 35, 37, 38, 40, 41, 43, 44]</t>
+          <t>[2, 3, 9, 10, 13, 16, 17, 19, 20, 21, 26, 27, 29, 32, 33, 34, 35, 36, 38, 39, 41, 42]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.8851190476190477</t>
+          <t>0.363015873015873</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.06616150569309319</t>
+          <t>0.06954123626214401</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.05877854144758722</t>
+          <t>0.08455112363001238</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9488265085974126</t>
+          <t>0.8572469368696078</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.2931554317474365</t>
+          <t>4.726547479629517</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[0, 3, 6, 7, 9, 13, 15, 17, 19, 20, 23, 25, 27, 28, 29, 32, 33, 36, 37, 40, 44]</t>
+          <t>[0, 3, 5, 10, 11, 17, 19, 20, 21, 23, 25, 26, 28, 30, 31, 33, 34, 35, 36, 37, 39, 44]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.7180555555555554</t>
+          <t>0.6438095238095238</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.06383404725164851</t>
+          <t>0.07210696004458092</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.051837732243649716</t>
+          <t>0.0880256823494786</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.9601985012092472</t>
+          <t>0.845273226428429</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.3416051864624023</t>
+          <t>4.792601108551025</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[1, 2, 9, 10, 12, 13, 17, 18, 22, 23, 25, 26, 27, 31, 32, 33, 34, 35, 37, 39, 40, 41, 42, 43, 44]</t>
+          <t>[6, 8, 9, 10, 11, 15, 16, 17, 19, 21, 22, 25, 29, 30, 31, 32, 33, 34, 35, 36, 40, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.6825396825396826</t>
+          <t>0.7176190476190476</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.06764168865924969</t>
+          <t>0.07315482420831454</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.06217319013786366</t>
+          <t>0.06114588777607724</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9427449574361195</t>
+          <t>0.9253411701589774</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.4518835544586182</t>
+          <t>5.000518560409546</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3635,79 +3635,79 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[5, 6, 8, 12, 16, 17, 19, 20, 21, 23, 24, 25, 26, 29, 31, 32, 36, 41, 42, 44]</t>
+          <t>[0, 1, 2, 3, 4, 6, 10, 11, 12, 14, 15, 17, 22, 23, 25, 26, 29, 30, 33, 34, 35, 36, 37, 42]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.5134920634920634</t>
+          <t>0.824126984126984</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.06798041189728468</t>
+          <t>0.07290691179260482</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.05327099765284988</t>
+          <t>0.06225881325074654</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9579671247547109</t>
+          <t>0.9225986839228988</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.3302855491638184</t>
+          <t>4.997739315032959</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 4, 5, 7, 9, 12, 14, 16, 17, 18, 20, 24, 25, 26, 28, 29, 30, 32, 34, 35, 37, 40, 44]</t>
+          <t>[0, 3, 11, 13, 15, 20, 21, 22, 26, 27, 28, 30, 31, 32, 33, 35, 36, 37, 38, 40]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.7075396825396825</t>
+          <t>0.7412698412698413</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.06472004478888696</t>
+          <t>0.07090427922177453</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.0560712609060938</t>
+          <t>0.09172565213340136</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.9534319467260657</t>
+          <t>0.831992648649893</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.4075260162353516</t>
+          <t>4.92129921913147</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3719,163 +3719,163 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 6, 9, 13, 14, 16, 19, 23, 24, 25, 26, 27, 28, 36, 37, 39, 42, 44]</t>
+          <t>[1, 2, 4, 8, 9, 15, 17, 19, 21, 24, 25, 26, 27, 28, 29, 31, 32, 33, 36, 37, 38, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.7331349206349207</t>
+          <t>0.9398412698412699</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.06482299337300859</t>
+          <t>0.0715274168738498</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.055330228590507596</t>
+          <t>0.06485112750006103</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.9546546908469495</t>
+          <t>0.916018866660909</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.3102238178253174</t>
+          <t>4.850654125213623</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[3, 6, 8, 9, 13, 18, 19, 21, 22, 23, 25, 26, 27, 28, 29, 30, 31, 32, 33, 36, 37, 39, 40, 44]</t>
+          <t>[0, 1, 6, 7, 8, 9, 11, 14, 15, 19, 20, 21, 22, 25, 28, 29, 32, 34, 35, 36, 37, 38, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.9831349206349207</t>
+          <t>1.3987301587301588</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0653893590903029</t>
+          <t>0.07326872261198894</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.05033775100204082</t>
+          <t>0.07053728851948295</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.9624685749582873</t>
+          <t>0.9006462665496358</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.3848681449890137</t>
+          <t>4.911555051803589</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[0, 4, 7, 10, 12, 14, 16, 17, 19, 21, 22, 24, 26, 29, 31, 32, 35, 37, 39, 42, 44]</t>
+          <t>[2, 3, 4, 6, 7, 11, 14, 17, 19, 20, 22, 25, 26, 28, 30, 33, 36, 37, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.6103174603174604</t>
+          <t>0.8846031746031746</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.06295455295590319</t>
+          <t>0.07108919589117213</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.053397853332192186</t>
+          <t>0.06827927392453954</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.9577666983340549</t>
+          <t>0.9069054070349479</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.3827943801879883</t>
+          <t>4.711484670639038</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 8, 12, 13, 15, 16, 17, 18, 20, 23, 26, 28, 29, 30, 31, 32, 33, 35, 37, 42, 43, 44]</t>
+          <t>[1, 3, 4, 5, 9, 11, 15, 19, 21, 23, 24, 25, 26, 27, 28, 30, 34, 35, 36, 37, 38, 39, 40]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.7936507936507936</t>
+          <t>0.9330158730158731</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.06299380920278724</t>
+          <t>0.07056070805268687</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.05061569635364307</t>
+          <t>0.06939535027043917</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9620529630264256</t>
+          <t>0.9038371306857678</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.399531602859497</t>
+          <t>4.853211164474487</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3887,247 +3887,247 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[3, 5, 16, 17, 18, 23, 24, 25, 28, 29, 31, 35, 37, 38, 39, 40, 44]</t>
+          <t>[5, 7, 8, 15, 17, 21, 25, 26, 29, 30, 32, 35, 36, 37, 40, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.22103174603174602</t>
+          <t>0.513015873015873</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.06652017022613292</t>
+          <t>0.07185963432120121</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.05913744109947918</t>
+          <t>0.07277156207188457</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.9481996737248267</t>
+          <t>0.8942525110230897</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.3634817600250244</t>
+          <t>4.892578363418579</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 11, 13, 16, 19, 20, 23, 26, 28, 30, 31, 32, 37, 41, 42, 43, 44]</t>
+          <t>[3, 4, 12, 16, 17, 18, 19, 20, 27, 28, 29, 31, 32, 33, 36, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.8154761904761905</t>
+          <t>0.47650793650793655</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.06713551976513477</t>
+          <t>0.07135670396114786</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.059342272267023065</t>
+          <t>0.07798692968835565</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.947840216287659</t>
+          <t>0.8785520147918552</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.3958687782287598</t>
+          <t>4.996847629547119</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 5, 9, 11, 13, 17, 19, 20, 22, 23, 26, 28, 32, 33, 34, 36, 37, 40, 41, 42, 44]</t>
+          <t>[4, 7, 8, 11, 18, 19, 20, 21, 22, 25, 26, 27, 28, 29, 31, 32, 35, 36, 37, 38, 39, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.2069444444444444</t>
+          <t>1.0533333333333332</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.06464073397319844</t>
+          <t>0.07227000805321977</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.05233140807146913</t>
+          <t>0.06927355117026726</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.9594367934469272</t>
+          <t>0.9041743945594272</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.3833277225494385</t>
+          <t>5.048352003097534</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[1, 3, 7, 13, 14, 15, 19, 20, 22, 23, 24, 25, 26, 31, 32, 33, 35, 37, 40, 42]</t>
+          <t>[5, 9, 10, 16, 17, 19, 20, 21, 23, 26, 27, 31, 32, 33, 36, 37, 43]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.6867063492063492</t>
+          <t>0.30968253968253967</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.0663714002433454</t>
+          <t>0.06920173457869203</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.06182114362206177</t>
+          <t>0.07844705228918485</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.9433915181730977</t>
+          <t>0.8771147018528318</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.3627049922943115</t>
+          <t>5.151134967803955</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 6, 7, 9, 12, 14, 15, 16, 17, 18, 22, 25, 26, 27, 28, 29, 33, 35, 37, 38, 42, 44]</t>
+          <t>[1, 3, 6, 7, 11, 14, 15, 17, 19, 26, 28, 32, 33, 36, 37, 42]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.7914682539682539</t>
+          <t>0.5074603174603175</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.06586983504928015</t>
+          <t>0.06999257472967148</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.05221149028181999</t>
+          <t>0.07566089638742261</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.9596224821955528</t>
+          <t>0.8856885763615159</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.3796758651733398</t>
+          <t>5.354961633682251</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 7, 8, 9, 12, 13, 17, 18, 19, 20, 22, 23, 24, 26, 28, 29, 31, 33, 36, 39, 41, 42, 43, 44]</t>
+          <t>[0, 6, 11, 13, 14, 16, 20, 22, 26, 28, 29, 31, 32, 33, 35, 36, 37, 39, 41, 42]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1.0327380952380951</t>
+          <t>0.8015873015873016</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.06745222515012295</t>
+          <t>0.07063832653853178</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.05314395552861307</t>
+          <t>0.0945867308757226</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.9581673679853615</t>
+          <t>0.8213483218370969</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.3893070220947266</t>
+          <t>5.140707492828369</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4139,91 +4139,91 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 7, 8, 9, 10, 13, 14, 17, 24, 25, 26, 27, 29, 31, 32, 35, 37, 39, 42, 43, 44]</t>
+          <t>[0, 8, 9, 12, 18, 19, 20, 21, 22, 23, 25, 26, 28, 33, 34, 35, 36, 37, 38, 39]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.5950396825396825</t>
+          <t>0.6241269841269841</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.0649177608670135</t>
+          <t>0.0703189198307089</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.05303491459390309</t>
+          <t>0.0764774583889412</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.9583388565255886</t>
+          <t>0.8832078746244795</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.386646032333374</t>
+          <t>5.109296560287476</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 8, 10, 11, 14, 20, 22, 23, 26, 28, 29, 32, 33, 34, 36, 37, 39, 40, 44]</t>
+          <t>[2, 4, 8, 18, 20, 23, 25, 27, 28, 29, 35, 36, 37, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1.0583333333333333</t>
+          <t>0.7107936507936508</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.064983595817632</t>
+          <t>0.07126030439731242</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.055233403813484204</t>
+          <t>0.07664469199477665</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.9548132554490736</t>
+          <t>0.8826965364195711</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.3916449546813965</t>
+          <t>5.092600107192993</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 14, 15, 17, 19, 21, 23, 24, 26, 27, 28, 29, 31, 32, 34, 35, 41, 44]</t>
+          <t>[2, 5, 8, 10, 12, 13, 15, 17, 18, 19, 22, 23, 26, 28, 29, 31, 35, 36, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4233,27 +4233,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.46984126984126984</t>
+          <t>0.7066666666666667</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.06542465074758365</t>
+          <t>0.07174255744035635</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.05986145599062131</t>
+          <t>0.06278370138850628</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.9469235350427216</t>
+          <t>0.9212880810190348</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.392228603363037</t>
+          <t>5.572795867919922</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4265,373 +4265,373 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[0, 1, 5, 6, 7, 9, 11, 12, 13, 14, 15, 17, 18, 19, 20, 22, 23, 25, 26, 27, 28, 29, 30, 33, 34, 35, 37, 42, 44]</t>
+          <t>[1, 4, 7, 9, 13, 14, 18, 19, 21, 22, 23, 25, 28, 35, 36, 43]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.1357142857142857</t>
+          <t>0.356984126984127</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.06577496906140921</t>
+          <t>0.07080702355757897</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.05412738528839493</t>
+          <t>0.07509189266421859</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.9566048159327768</t>
+          <t>0.8874014571280848</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.3286514282226562</t>
+          <t>5.183487892150879</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 5, 8, 11, 13, 16, 17, 18, 19, 20, 25, 28, 29, 30, 32, 33, 34, 35, 36, 37, 39, 40, 41, 42, 44]</t>
+          <t>[0, 4, 9, 11, 17, 24, 25, 26, 30, 31, 32, 34, 35, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1.280357142857143</t>
+          <t>0.29174603174603175</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.06689297580780285</t>
+          <t>0.07125391727929616</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.05599022877694638</t>
+          <t>0.06334073100364768</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.9535664463530787</t>
+          <t>0.9198851892107657</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.3302786350250244</t>
+          <t>5.162964820861816</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[1, 5, 10, 12, 19, 20, 23, 24, 26, 28, 29, 31, 32, 34, 35, 41, 43, 44]</t>
+          <t>[6, 7, 8, 9, 12, 16, 18, 20, 22, 23, 24, 26, 27, 28, 30, 31, 33, 35, 36, 41, 42]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.3478174603174603</t>
+          <t>0.5233333333333333</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.06309890765023453</t>
+          <t>0.07315006259139409</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.0604477489019275</t>
+          <t>0.07730534128015969</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.9458787644543842</t>
+          <t>0.8806655948651484</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.314992904663086</t>
+          <t>5.108861923217773</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 7, 8, 9, 10, 13, 15, 17, 22, 23, 26, 28, 29, 30, 34, 35, 37, 39, 42]</t>
+          <t>[4, 5, 6, 9, 10, 15, 18, 20, 23, 24, 25, 26, 27, 29, 30, 31, 32, 35, 37, 43]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.7748015873015873</t>
+          <t>0.31857142857142856</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.06739766905886112</t>
+          <t>0.07150770009137239</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.06046780164675281</t>
+          <t>0.07961487359600691</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.9458428504837464</t>
+          <t>0.8734287442722716</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.3098065853118896</t>
+          <t>5.142453670501709</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[7, 10, 13, 14, 19, 21, 22, 23, 26, 29, 31, 33, 37, 39, 40, 43]</t>
+          <t>[0, 3, 6, 7, 9, 14, 17, 18, 19, 20, 25, 26, 30, 32, 35, 36, 37, 43]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.35257936507936505</t>
+          <t>0.2828571428571428</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.06484036752654787</t>
+          <t>0.072499132602584</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.04995134008650263</t>
+          <t>0.08150760800113238</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.9630425731440111</t>
+          <t>0.8673390920943342</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.3240602016448975</t>
+          <t>5.0641045570373535</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 8, 12, 17, 21, 25, 26, 28, 29, 30, 31, 33, 35, 36, 37, 40, 41, 42, 44]</t>
+          <t>[1, 2, 3, 5, 8, 9, 14, 16, 17, 23, 24, 25, 28, 30, 31, 32, 33, 36, 37, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.745436507936508</t>
+          <t>0.6842857142857144</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.06362625152365001</t>
+          <t>0.07207880687117288</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.053875287160121084</t>
+          <t>0.06416992414014515</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9570081004614879</t>
+          <t>0.9177738945726782</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.3275964260101318</t>
+          <t>4.938542127609253</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 5, 6, 10, 13, 15, 17, 18, 19, 23, 25, 26, 27, 28, 31, 32, 35, 37, 41, 44]</t>
+          <t>[2, 4, 5, 10, 18, 19, 20, 23, 24, 26, 27, 28, 29, 36, 39, 40]</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.7152777777777779</t>
+          <t>0.3698412698412698</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.06379542247931427</t>
+          <t>0.07270624674662605</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.053376624252909656</t>
+          <t>0.09996203748095585</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.9578002725633759</t>
+          <t>0.8004660186957426</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.3339009284973145</t>
+          <t>4.846440553665161</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[3, 15, 16, 19, 21, 23, 24, 25, 27, 28, 30, 33, 36, 38, 39, 41, 44]</t>
+          <t>[1, 3, 7, 8, 9, 16, 17, 18, 23, 25, 28, 31, 32, 33, 34, 35, 36, 39]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.4884920634920634</t>
+          <t>0.47000000000000003</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.06072311778799257</t>
+          <t>0.07259611756580595</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.07168651988081066</t>
+          <t>0.0560282299106194</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.9238828650255555</t>
+          <t>0.937315455674886</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.3229708671569824</t>
+          <t>4.941614151000977</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 12, 13, 15, 17, 18, 20, 21, 23, 25, 29, 33, 34, 37, 42, 43]</t>
+          <t>[5, 11, 12, 14, 19, 23, 26, 28, 31, 33, 36, 37, 38, 40, 41, 42]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.32996031746031745</t>
+          <t>0.7106349206349207</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.06615685691709268</t>
+          <t>0.07071507798215902</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.059528006578419876</t>
+          <t>0.06385693942985823</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.94751319738287</t>
+          <t>0.9185740436289861</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.3475399017333984</t>
+          <t>4.944270133972168</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4643,37 +4643,37 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[3, 4, 7, 9, 11, 22, 23, 25, 26, 30, 33, 34, 35, 36, 39]</t>
+          <t>[0, 4, 7, 8, 9, 15, 16, 18, 24, 25, 26, 29, 30, 31, 33, 35, 36, 37, 39, 42]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.34384920634920635</t>
+          <t>0.47238095238095235</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.06520404856962728</t>
+          <t>0.06841695300512049</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.06245355579915224</t>
+          <t>0.05966836781295082</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.9422274179209043</t>
+          <t>0.9289056667911263</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.3229730129241943</t>
+          <t>4.8437135219573975</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
